--- a/maps/contestacaoSaldoRecargaPRE/exportedScenarios/Contestação Saldo Recarga Scenarios.xlsx
+++ b/maps/contestacaoSaldoRecargaPRE/exportedScenarios/Contestação Saldo Recarga Scenarios.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>ID</t>
   </si>
@@ -71,9 +71,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &gt; zero
-Intenção Consultar Saldo
 Quer contestar saldo
 Cliente Pré Top
 Quer algo mais</t>
@@ -90,9 +90,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &gt; zero
-Intenção Consultar Saldo
 Quer contestar saldo
 Cliente Pré Top
 Não quer mais nada</t>
@@ -109,9 +109,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &gt; zero
-Intenção Consultar Saldo
 Quer contestar saldo
 Não é Pré Top
 Quer algo mais</t>
@@ -129,9 +129,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &gt; zero
-Intenção Consultar Saldo
 Quer contestar saldo
 Não é Pré Top
 Não quer mais nada</t>
@@ -149,9 +149,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &gt; zero
-Intenção Consultar Saldo
 Quer contestar saldo</t>
   </si>
   <si>
@@ -165,9 +165,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &gt; zero
-Intenção Consultar Saldo
 Não quer mais nada</t>
   </si>
   <si>
@@ -175,9 +175,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &lt; zero
-Intenção Consultar Saldo
 Quer contestar saldo
 Cliente Pré Top
 Quer algo mais</t>
@@ -194,9 +194,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &lt; zero
-Intenção Consultar Saldo
 Quer contestar saldo
 Cliente Pré Top
 Não quer mais nada</t>
@@ -213,9 +213,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &lt; zero
-Intenção Consultar Saldo
 Quer contestar saldo
 Não é Pré Top
 Quer algo mais</t>
@@ -233,9 +233,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &lt; zero
-Intenção Consultar Saldo
 Quer contestar saldo
 Não é Pré Top
 Não quer mais nada</t>
@@ -253,9 +253,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &lt; zero
-Intenção Consultar Saldo
 Quer contestar saldo</t>
   </si>
   <si>
@@ -269,9 +269,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &lt; zero
-Intenção Consultar Saldo
 Não quer mais nada</t>
   </si>
   <si>
@@ -279,9 +279,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo = zero
-Intenção Consultar Saldo
 Quer contestar saldo
 Cliente Pré Top
 Quer algo mais</t>
@@ -291,9 +291,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo = zero
-Intenção Consultar Saldo
 Quer contestar saldo
 Cliente Pré Top
 Não quer mais nada</t>
@@ -303,9 +303,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo = zero
-Intenção Consultar Saldo
 Quer contestar saldo
 Não é Pré Top
 Quer algo mais</t>
@@ -315,9 +315,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo = zero
-Intenção Consultar Saldo
 Quer contestar saldo
 Não é Pré Top
 Não quer mais nada</t>
@@ -327,9 +327,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo = zero
-Intenção Consultar Saldo
 Quer contestar saldo</t>
   </si>
   <si>
@@ -337,9 +337,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo = zero
-Intenção Consultar Saldo
 Não quer mais nada</t>
   </si>
   <si>
@@ -347,9 +347,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &gt; zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo
 Cliente Pré Top
 Quer algo mais</t>
@@ -366,9 +366,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &gt; zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo
 Cliente Pré Top
 Não quer mais nada</t>
@@ -385,9 +385,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &gt; zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo
 Não é Pré Top
 Quer algo mais</t>
@@ -405,9 +405,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &gt; zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo
 Não é Pré Top
 Não quer mais nada</t>
@@ -425,9 +425,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &gt; zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo</t>
   </si>
   <si>
@@ -441,9 +441,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &gt; zero (expirado)
-Intenção Consultar Saldo
 Não quer mais nada</t>
   </si>
   <si>
@@ -451,9 +451,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &lt; zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo
 Cliente Pré Top
 Quer algo mais</t>
@@ -463,9 +463,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &lt; zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo
 Cliente Pré Top
 Não quer mais nada</t>
@@ -475,9 +475,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &lt; zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo
 Não é Pré Top
 Quer algo mais</t>
@@ -487,9 +487,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &lt; zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo
 Não é Pré Top
 Não quer mais nada</t>
@@ -499,9 +499,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &lt; zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo</t>
   </si>
   <si>
@@ -509,9 +509,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &lt; zero (expirado)
-Intenção Consultar Saldo
 Não quer mais nada</t>
   </si>
   <si>
@@ -519,9 +519,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo = zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo
 Cliente Pré Top
 Quer algo mais</t>
@@ -531,9 +531,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo = zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo
 Cliente Pré Top
 Não quer mais nada</t>
@@ -543,9 +543,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo = zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo
 Não é Pré Top
 Quer algo mais</t>
@@ -555,9 +555,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo = zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo
 Não é Pré Top
 Não quer mais nada</t>
@@ -567,9 +567,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo = zero (expirado)
-Intenção Consultar Saldo
 Quer contestar saldo</t>
   </si>
   <si>
@@ -577,9 +577,9 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo = zero (expirado)
-Intenção Consultar Saldo
 Não quer mais nada</t>
   </si>
   <si>
@@ -587,6 +587,451 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &gt; zero
+Quer contestar saldo
+Cliente Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.038</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &gt; zero
+Quer contestar saldo
+Cliente Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.039</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &gt; zero
+Quer contestar saldo
+Não é Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.040</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &gt; zero
+Quer contestar saldo
+Não é Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.041</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &gt; zero
+Quer contestar saldo</t>
+  </si>
+  <si>
+    <t>05.042</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &gt; zero
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.043</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &lt; zero
+Quer contestar saldo
+Cliente Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.044</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &lt; zero
+Quer contestar saldo
+Cliente Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.045</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &lt; zero
+Quer contestar saldo
+Não é Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.046</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &lt; zero
+Quer contestar saldo
+Não é Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.047</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &lt; zero
+Quer contestar saldo</t>
+  </si>
+  <si>
+    <t>05.048</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &lt; zero
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.049</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo = zero
+Quer contestar saldo
+Cliente Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.050</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo = zero
+Quer contestar saldo
+Cliente Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.051</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo = zero
+Quer contestar saldo
+Não é Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.052</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo = zero
+Quer contestar saldo
+Não é Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.053</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo = zero
+Quer contestar saldo</t>
+  </si>
+  <si>
+    <t>05.054</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo = zero
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.055</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &gt; zero (expirado)
+Quer contestar saldo
+Cliente Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.056</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &gt; zero (expirado)
+Quer contestar saldo
+Cliente Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.057</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &gt; zero (expirado)
+Quer contestar saldo
+Não é Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.058</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &gt; zero (expirado)
+Quer contestar saldo
+Não é Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.059</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &gt; zero (expirado)
+Quer contestar saldo</t>
+  </si>
+  <si>
+    <t>05.060</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &gt; zero (expirado)
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.061</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &lt; zero (expirado)
+Quer contestar saldo
+Cliente Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.062</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &lt; zero (expirado)
+Quer contestar saldo
+Cliente Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.063</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &lt; zero (expirado)
+Quer contestar saldo
+Não é Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.064</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &lt; zero (expirado)
+Quer contestar saldo
+Não é Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.065</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &lt; zero (expirado)
+Quer contestar saldo</t>
+  </si>
+  <si>
+    <t>05.066</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &lt; zero (expirado)
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.067</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo = zero (expirado)
+Quer contestar saldo
+Cliente Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.068</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo = zero (expirado)
+Quer contestar saldo
+Cliente Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.069</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo = zero (expirado)
+Quer contestar saldo
+Não é Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.070</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo = zero (expirado)
+Quer contestar saldo
+Não é Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.071</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo = zero (expirado)
+Quer contestar saldo</t>
+  </si>
+  <si>
+    <t>05.072</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo = zero (expirado)
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.073</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
 Falha na consulta de saldo
 Quer algo mais</t>
   </si>
@@ -598,10 +1043,11 @@
 4 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>05.038</t>
-  </si>
-  <si>
-    <t>Intenção Consultar Saldo
+    <t>05.074</t>
+  </si>
+  <si>
+    <t>Intenção Consultar Saldo
+Sem informação de saldo
 Falha na consulta de saldo
 Não quer mais nada</t>
   </si>
@@ -613,106 +1059,204 @@
 4 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>05.039</t>
+    <t>05.075</t>
   </si>
   <si>
     <t>Intenção Contestar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &gt; zero
-Outra intenção
 Cliente Pré Top
 Quer algo mais</t>
   </si>
   <si>
-    <t>05.040</t>
+    <t>05.076</t>
   </si>
   <si>
     <t>Intenção Contestar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &gt; zero
-Outra intenção
 Cliente Pré Top
 Não quer mais nada</t>
   </si>
   <si>
-    <t>05.041</t>
+    <t>05.077</t>
   </si>
   <si>
     <t>Intenção Contestar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &gt; zero
-Outra intenção
 Não é Pré Top
 Quer algo mais</t>
   </si>
   <si>
-    <t>05.042</t>
+    <t>05.078</t>
   </si>
   <si>
     <t>Intenção Contestar Saldo
+Saldo consultado no acolhimento
 Saldo válido
 Saldo &gt; zero
-Outra intenção
 Não é Pré Top
 Não quer mais nada</t>
   </si>
   <si>
-    <t>05.043</t>
+    <t>05.079</t>
   </si>
   <si>
     <t>Intenção Contestar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &gt; zero (expirado)
-Outra intenção
 Cliente Pré Top
 Quer algo mais</t>
   </si>
   <si>
-    <t>05.044</t>
+    <t>05.080</t>
   </si>
   <si>
     <t>Intenção Contestar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &gt; zero (expirado)
-Outra intenção
 Cliente Pré Top
 Não quer mais nada</t>
   </si>
   <si>
-    <t>05.045</t>
+    <t>05.081</t>
   </si>
   <si>
     <t>Intenção Contestar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &gt; zero (expirado)
-Outra intenção
 Não é Pré Top
 Quer algo mais</t>
   </si>
   <si>
-    <t>05.046</t>
+    <t>05.082</t>
   </si>
   <si>
     <t>Intenção Contestar Saldo
+Saldo consultado no acolhimento
 Saldo fora da validade
 Saldo &gt; zero (expirado)
-Outra intenção
 Não é Pré Top
 Não quer mais nada</t>
   </si>
   <si>
-    <t>05.047</t>
+    <t>05.083</t>
   </si>
   <si>
     <t>Intenção Contestar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &gt; zero
+Cliente Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.084</t>
+  </si>
+  <si>
+    <t>Intenção Contestar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &gt; zero
+Cliente Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.085</t>
+  </si>
+  <si>
+    <t>Intenção Contestar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &gt; zero
+Não é Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.086</t>
+  </si>
+  <si>
+    <t>Intenção Contestar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo válido
+Saldo &gt; zero
+Não é Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.087</t>
+  </si>
+  <si>
+    <t>Intenção Contestar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &gt; zero (expirado)
+Cliente Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.088</t>
+  </si>
+  <si>
+    <t>Intenção Contestar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &gt; zero (expirado)
+Cliente Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.089</t>
+  </si>
+  <si>
+    <t>Intenção Contestar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &gt; zero (expirado)
+Não é Pré Top
+Quer algo mais</t>
+  </si>
+  <si>
+    <t>05.090</t>
+  </si>
+  <si>
+    <t>Intenção Contestar Saldo
+Sem informação de saldo
+Sucesso na consulta de saldo
+Saldo fora da validade
+Saldo &gt; zero (expirado)
+Não é Pré Top
+Não quer mais nada</t>
+  </si>
+  <si>
+    <t>05.091</t>
+  </si>
+  <si>
+    <t>Intenção Contestar Saldo
+Sem informação de saldo
 Falha na consulta de saldo
 Quer algo mais</t>
   </si>
   <si>
-    <t>05.048</t>
+    <t>05.092</t>
   </si>
   <si>
     <t>Intenção Contestar Saldo
+Sem informação de saldo
 Falha na consulta de saldo
 Não quer mais nada</t>
   </si>
@@ -808,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
@@ -819,7 +1363,7 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="5" max="5" width="14.444444444444445" customWidth="1"/>
+    <col min="5" max="5" width="17.22222222222222" customWidth="1"/>
     <col min="6" max="6" width="85" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1590,7 +2134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="54" customHeight="1">
+    <row r="38" spans="1:6" ht="144" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>105</v>
       </c>
@@ -1607,72 +2151,72 @@
         <v>106</v>
       </c>
       <c r="F38" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="144" customHeight="1">
+      <c r="A39" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="54" customHeight="1">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="144" customHeight="1">
+      <c r="A40" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="B40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="108" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="F40" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="144" customHeight="1">
+      <c r="A41" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="B41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="108" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="108" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>16</v>
@@ -1684,150 +2228,1030 @@
         <v>18</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="108" customHeight="1">
       <c r="A43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="144" customHeight="1">
+      <c r="A44" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="B44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F44" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="144" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="144" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="144" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="108" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="108" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="144" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="144" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="144" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="144" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="108" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="108" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="144" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="144" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="144" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="144" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="108" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="108" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="144" customHeight="1">
+      <c r="A62" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="144" customHeight="1">
+      <c r="A63" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="144" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="144" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="108" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="108" customHeight="1">
+      <c r="A67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="144" customHeight="1">
+      <c r="A68" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="144" customHeight="1">
+      <c r="A69" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="144" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="144" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="108" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="108" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="72" customHeight="1">
+      <c r="A74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="72" customHeight="1">
+      <c r="A75" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="108" customHeight="1">
+      <c r="A76" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="108" customHeight="1">
+      <c r="A77" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="108" customHeight="1">
+      <c r="A78" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="108" customHeight="1">
+      <c r="A79" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="108" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F44" s="3" t="s">
+    <row r="80" spans="1:6" ht="108" customHeight="1">
+      <c r="A80" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="108" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="3" t="s">
+    <row r="81" spans="1:6" ht="108" customHeight="1">
+      <c r="A81" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="108" customHeight="1">
-      <c r="A46" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="3" t="s">
+    <row r="82" spans="1:6" ht="108" customHeight="1">
+      <c r="A82" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="108" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="3" t="s">
+    <row r="83" spans="1:6" ht="108" customHeight="1">
+      <c r="A83" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="54" customHeight="1">
-      <c r="A48" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="54" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>110</v>
+    <row r="84" spans="1:6" ht="126" customHeight="1">
+      <c r="A84" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="126" customHeight="1">
+      <c r="A85" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="126" customHeight="1">
+      <c r="A86" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="126" customHeight="1">
+      <c r="A87" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="126" customHeight="1">
+      <c r="A88" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="126" customHeight="1">
+      <c r="A89" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="126" customHeight="1">
+      <c r="A90" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="126" customHeight="1">
+      <c r="A91" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="72" customHeight="1">
+      <c r="A92" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="72" customHeight="1">
+      <c r="A93" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
